--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8071</v>
+        <v>-11.3963</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.56709999999999</v>
+        <v>-21.605</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.18199999999999</v>
+        <v>-13.1976</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.3077</v>
+        <v>-12.52320000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.96050000000001</v>
+        <v>-13.0687</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.27019999999998</v>
+        <v>-21.22859999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.93350000000001</v>
+        <v>-12.43720000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.1249</v>
+        <v>-20.1582</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.51749999999999</v>
+        <v>-13.5607</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.4151</v>
+        <v>-19.42449999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.84949999999999</v>
+        <v>-13.85759999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6758</v>
+        <v>-21.71669999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.76099999999999</v>
+        <v>-21.76439999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.47270000000001</v>
+        <v>-22.44110000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.17349999999999</v>
+        <v>-14.31559999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.55549999999998</v>
+        <v>-21.54929999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65019999999997</v>
+        <v>-21.64349999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.67859999999998</v>
+        <v>-21.71919999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.41340000000001</v>
+        <v>-21.42750000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.42819999999999</v>
+        <v>-20.51299999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.7307</v>
+        <v>-13.11809999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.3086</v>
+        <v>-12.9886</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
